--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1570337.132607725</v>
+        <v>-1577347.861723719</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>253.0572194294178</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>20.81136319439447</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>101.9650572636056</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>22.78476950182622</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.55923480680973</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>39.00001553722701</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>64.71936338333448</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>179.5864507947698</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>35.1368592263252</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>24.47947298408077</v>
       </c>
     </row>
     <row r="7">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>165.2599640362305</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.2417557717193</v>
+        <v>382.2599825161801</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>1.681581062526599</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>68.52466222854822</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>189.769354938349</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>91.84667986741773</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1430,10 +1430,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89906283108856</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>56.19364793320868</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>171.3297827848035</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>238.8369814386456</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.49010107808915</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>171.4062828285161</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1859,7 +1859,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I17" t="n">
         <v>6.593776422875436</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383888</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828892</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431724</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459965</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643938</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931849</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908576</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147789</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804993</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922186</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367778</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792051</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1174.691935206804</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="C2" t="n">
-        <v>1174.691935206804</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="D2" t="n">
-        <v>1174.691935206804</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E2" t="n">
-        <v>1174.691935206804</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793344</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978632</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207955</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845418</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582684</v>
+        <v>2054.140758832686</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.289453582684</v>
+        <v>1798.388029267284</v>
       </c>
       <c r="V2" t="n">
-        <v>1571.182644286203</v>
+        <v>1798.388029267284</v>
       </c>
       <c r="W2" t="n">
-        <v>1571.182644286203</v>
+        <v>1798.388029267284</v>
       </c>
       <c r="X2" t="n">
-        <v>1571.182644286203</v>
+        <v>1408.935424200341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1174.691935206804</v>
+        <v>1408.935424200341</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>735.5070029058102</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>584.8527724659024</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>454.7638050873827</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>318.3173141982704</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>193.8855080814022</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>2036.433443595206</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737746</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>887.3033373467715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1668.340506485567</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="C4" t="n">
-        <v>1668.340506485567</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="D4" t="n">
-        <v>1597.068552135254</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>1597.068552135254</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>1597.068552135254</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>1428.8144982347</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306135</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179935</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518199</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549408</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591116</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367695</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737746</v>
+        <v>903.5563142097828</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737746</v>
+        <v>618.1175224516837</v>
       </c>
       <c r="V4" t="n">
-        <v>2174.782969737746</v>
+        <v>618.1175224516837</v>
       </c>
       <c r="W4" t="n">
-        <v>1891.452567668924</v>
+        <v>618.1175224516837</v>
       </c>
       <c r="X4" t="n">
-        <v>1891.452567668924</v>
+        <v>384.0372002346668</v>
       </c>
       <c r="Y4" t="n">
-        <v>1668.340506485567</v>
+        <v>384.0372002346668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1719.957270344202</v>
+        <v>851.5042863243372</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.957270344202</v>
+        <v>851.5042863243372</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.51614156087</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774144</v>
+        <v>63.4796326575494</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073922</v>
+        <v>50.62559822793122</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>280.012274464855</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407456</v>
+        <v>773.3325661833838</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>773.3325661833838</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737746</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>2109.409875411146</v>
+        <v>1685.14818031739</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.409875411146</v>
+        <v>1429.395450751988</v>
       </c>
       <c r="V5" t="n">
-        <v>2109.409875411146</v>
+        <v>1247.994995403736</v>
       </c>
       <c r="W5" t="n">
-        <v>2109.409875411146</v>
+        <v>1247.994995403736</v>
       </c>
       <c r="X5" t="n">
-        <v>1719.957270344202</v>
+        <v>1247.994995403736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1719.957270344202</v>
+        <v>851.5042863243372</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569813</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>901.4935904670735</v>
+        <v>813.5918890426555</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>778.0134253340543</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>778.0134253340543</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>778.0134253340543</v>
+        <v>776.0210126956379</v>
       </c>
       <c r="V7" t="n">
-        <v>512.0340801548786</v>
+        <v>510.0416675164621</v>
       </c>
       <c r="W7" t="n">
-        <v>228.7036780860562</v>
+        <v>226.7112654476397</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7036780860562</v>
+        <v>226.7112654476397</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860562</v>
+        <v>226.7112654476397</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7499273842031</v>
+        <v>1723.774581050991</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>1723.774581050991</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="E8" t="n">
         <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>353.2546601492718</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>846.5749518678007</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1633.527538281166</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1633.527538281166</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>1244.074933214223</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1244.074933214223</v>
+        <v>2109.895775511779</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.519059600457</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="C10" t="n">
-        <v>491.519059600457</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D10" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E10" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W10" t="n">
-        <v>676.7270782917583</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="X10" t="n">
-        <v>676.7270782917583</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.7270782917583</v>
+        <v>204.4900878698745</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1558.431545602419</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C11" t="n">
-        <v>1558.431545602419</v>
+        <v>813.6365687735849</v>
       </c>
       <c r="D11" t="n">
-        <v>1244.78669196528</v>
+        <v>499.9917151364466</v>
       </c>
       <c r="E11" t="n">
-        <v>913.9994422280187</v>
+        <v>499.9917151364466</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>154.8935518126186</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.782309456373</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>1883.125979535624</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1558.431545602419</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.7345522742329</v>
+        <v>655.0952099420613</v>
       </c>
       <c r="C13" t="n">
-        <v>208.325709486416</v>
+        <v>556.6863671542444</v>
       </c>
       <c r="D13" t="n">
-        <v>208.325709486416</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>389.0869922083495</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,46 +5203,46 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>1230.985410981374</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>1036.802340948392</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901633</v>
+        <v>825.2682140257634</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193403</v>
+        <v>768.5069534871686</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193403</v>
+        <v>768.5069534871686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1318.972249543667</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D14" t="n">
         <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2434.328847378772</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.328847378772</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>1972.365154042075</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1647.67072010887</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389.0869922083496</v>
+        <v>468.2723546649078</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0869922083496</v>
+        <v>369.8635118770909</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083496</v>
+        <v>286.0266739257994</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774624</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V16" t="n">
-        <v>762.9051662018011</v>
+        <v>955.5022722034669</v>
       </c>
       <c r="W16" t="n">
-        <v>551.3710392791726</v>
+        <v>743.9681452808384</v>
       </c>
       <c r="X16" t="n">
-        <v>389.0869922083496</v>
+        <v>581.6840982100152</v>
       </c>
       <c r="Y16" t="n">
-        <v>389.0869922083496</v>
+        <v>581.6840982100152</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5771,7 +5771,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5908,22 +5908,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222412</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5978,28 +5978,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,19 +6227,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938492</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
         <v>3390.346025506991</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6312,13 @@
         <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924093</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782685</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>664.2362037203857</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1292.007853347067</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1292.007853347067</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1808.528135938048</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996512</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918659</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431901</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076157</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>342.9206752648152</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>507.048315138615</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169078</v>
+        <v>804.9920140518618</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>988.181648083071</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543966</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395506</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000929</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124407</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584487</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7442,19 +7442,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184709</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7731,10 +7731,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788126</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321637</v>
+        <v>214.0018366896125</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837484</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>285.3870922018748</v>
       </c>
       <c r="O3" t="n">
-        <v>232.4345549924643</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>237.8657312597308</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>452.8420031504908</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,22 +8295,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837484</v>
+        <v>383.8240476937602</v>
       </c>
       <c r="N6" t="n">
-        <v>203.3343718525539</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>305.9795316023688</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,19 +8769,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>742.9781195708306</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>298.4852906721864</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9006,10 +9006,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>239.756709922914</v>
+        <v>578.2246058800795</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,25 +9243,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,19 +9480,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,16 +9960,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>166.3231752016892</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>597.3159339866202</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10191,22 +10191,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>223.1228999678465</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10428,22 +10428,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>163.996400009296</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415802</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,13 +11379,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>151.877826752241</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>246.1061356947271</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.02584879356899</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>104.467558666906</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>146.8356513025633</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>28.77044737013924</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>17.43481054656847</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>20.83495650413599</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>54099.65342800705</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47807.70702732013</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47807.70702732014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="H2" t="n">
+        <v>54099.65342800704</v>
+      </c>
+      <c r="I2" t="n">
         <v>54099.65342800703</v>
-      </c>
-      <c r="C2" t="n">
-        <v>54099.65342800703</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54099.65342800705</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47807.70702732014</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47807.70702732013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54099.65342800705</v>
-      </c>
-      <c r="H2" t="n">
-        <v>54099.65342800703</v>
-      </c>
-      <c r="I2" t="n">
-        <v>54099.65342800704</v>
       </c>
       <c r="J2" t="n">
         <v>54099.65342800702</v>
@@ -26341,19 +26341,19 @@
         <v>54099.65342800705</v>
       </c>
       <c r="L2" t="n">
-        <v>54099.65342800696</v>
+        <v>54099.65342800701</v>
       </c>
       <c r="M2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="N2" t="n">
-        <v>54099.65342800705</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="O2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800706</v>
       </c>
       <c r="P2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.325536682</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.4955237375</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-361995.6992281729</v>
+        <v>-358847.3486413989</v>
       </c>
       <c r="C6" t="n">
-        <v>-179790.7509363173</v>
+        <v>-184988.6916073438</v>
       </c>
       <c r="D6" t="n">
-        <v>-184654.0332301926</v>
+        <v>-192390.3224535839</v>
       </c>
       <c r="E6" t="n">
-        <v>-191585.3696703024</v>
+        <v>-191795.101216992</v>
       </c>
       <c r="F6" t="n">
-        <v>-79462.80819625786</v>
+        <v>-79672.53974294728</v>
       </c>
       <c r="G6" t="n">
-        <v>-173338.8534395142</v>
+        <v>-173338.8534395143</v>
       </c>
       <c r="H6" t="n">
         <v>-125913.5279028323</v>
@@ -26543,22 +26543,22 @@
         <v>-125913.5279028323</v>
       </c>
       <c r="J6" t="n">
-        <v>-338955.4455001176</v>
+        <v>-332439.1603455446</v>
       </c>
       <c r="K6" t="n">
         <v>-132153.2963056152</v>
       </c>
       <c r="L6" t="n">
-        <v>-187335.8852402364</v>
+        <v>-191384.7224507087</v>
       </c>
       <c r="M6" t="n">
-        <v>-168114.3573624553</v>
+        <v>-169166.0523736435</v>
       </c>
       <c r="N6" t="n">
         <v>-125913.5279028323</v>
       </c>
       <c r="O6" t="n">
-        <v>-153681.2219456035</v>
+        <v>-153681.2219456033</v>
       </c>
       <c r="P6" t="n">
         <v>-125913.5279028323</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095196</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407345</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>159.6682746559042</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>200.454233221783</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>16.89416248524859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>185.1777423863184</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>83.51754715970067</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>194.3618457762212</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>156.546233032843</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>159.099290408747</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>185.1777423863184</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>153.0416017711671</v>
       </c>
     </row>
     <row r="7">
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>35.52795894304558</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>117.3244398042875</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.24804248256356</v>
+        <v>14.22981573810279</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.6743574418617</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>211.9724358195859</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="17">
@@ -28743,25 +28743,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599567</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599572</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566178</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224724</v>
       </c>
       <c r="P34" t="n">
-        <v>94.97643844045115</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M37" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30277,7 +30277,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
         <v>130.3599693155844</v>
@@ -30402,23 +30402,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>28.01250026485255</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>35.71049010668966</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>35.71049010668843</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995752</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344365</v>
+        <v>64.27678509188524</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>200.0149793477081</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7469961035754</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>94.80732808049338</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>303.7235118127067</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344365</v>
+        <v>291.4369256444483</v>
       </c>
       <c r="N6" t="n">
-        <v>117.9622589983873</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>162.9211284231314</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>93.70171839237574</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>657.606006716664</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>147.0691510340251</v>
+        <v>485.5370469911906</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877753</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>531.134972901782</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>73.9360531523773</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>511.9438211324535</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>137.7507871136798</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>614.2507921538447</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>48.6599273883285</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.93605315237775</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222656</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>271.2165915595513</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784093</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M37" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287096</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38099,13 +38099,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38187,13 +38187,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684092</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
